--- a/teaching/traditional_assets/database/data/south_korea/south_korea_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/south_korea/south_korea_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ23"/>
+  <dimension ref="A1:AQ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1861</v>
+        <v>0.1305</v>
       </c>
       <c r="E2">
-        <v>0.13005</v>
-      </c>
-      <c r="F2">
-        <v>0.006</v>
+        <v>0.1655</v>
       </c>
       <c r="G2">
-        <v>0.006955550304884368</v>
+        <v>0.007305289086597525</v>
       </c>
       <c r="H2">
-        <v>0.006914304900948852</v>
+        <v>0.007276016859557149</v>
       </c>
       <c r="I2">
-        <v>0.006889433300585725</v>
+        <v>0.01121531124318214</v>
       </c>
       <c r="J2">
-        <v>0.005197707067989168</v>
+        <v>0.00854537031155006</v>
       </c>
       <c r="K2">
-        <v>2450.78</v>
+        <v>3568.74</v>
       </c>
       <c r="L2">
-        <v>0.05079568394828365</v>
+        <v>0.05556647208939863</v>
       </c>
       <c r="M2">
-        <v>660.7362000000001</v>
+        <v>805.8086</v>
       </c>
       <c r="N2">
-        <v>0.03763870644328869</v>
+        <v>0.03658841424653553</v>
       </c>
       <c r="O2">
-        <v>0.2696024122932291</v>
+        <v>0.2257963875205254</v>
       </c>
       <c r="P2">
-        <v>559.3552</v>
+        <v>746.1186</v>
       </c>
       <c r="Q2">
-        <v>0.03186355790756891</v>
+        <v>0.03387813981365444</v>
       </c>
       <c r="R2">
-        <v>0.2282355821411958</v>
+        <v>0.2090705963449284</v>
       </c>
       <c r="S2">
-        <v>101.381</v>
+        <v>59.69</v>
       </c>
       <c r="T2">
-        <v>0.1534364244005399</v>
+        <v>0.07407466239501541</v>
       </c>
       <c r="U2">
-        <v>12679.29</v>
+        <v>23628.7</v>
       </c>
       <c r="V2">
-        <v>0.7222732373666311</v>
+        <v>1.072880909569734</v>
       </c>
       <c r="W2">
-        <v>0.06790278125783011</v>
+        <v>0.1029530726196041</v>
       </c>
       <c r="X2">
-        <v>0.2101569772872595</v>
+        <v>0.1937506689159171</v>
       </c>
       <c r="Y2">
-        <v>-0.1422541960294294</v>
+        <v>-0.09079759629631298</v>
       </c>
       <c r="Z2">
-        <v>0.3884749172249017</v>
+        <v>0.4394481422426897</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04300889141995719</v>
+        <v>0.03376590511878183</v>
       </c>
       <c r="AC2">
-        <v>-0.04300889141995719</v>
+        <v>-0.03374892894957672</v>
       </c>
       <c r="AD2">
-        <v>129864.3</v>
+        <v>166210.5</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>129864.3</v>
+        <v>166210.5</v>
       </c>
       <c r="AG2">
-        <v>117185.01</v>
+        <v>142581.8</v>
       </c>
       <c r="AH2">
-        <v>0.8809196914915988</v>
+        <v>0.8829988827741626</v>
       </c>
       <c r="AI2">
-        <v>0.8145307320561108</v>
+        <v>0.8279270752907774</v>
       </c>
       <c r="AJ2">
-        <v>0.8697139840957057</v>
+        <v>0.8662036603902423</v>
       </c>
       <c r="AK2">
-        <v>0.7985066424558283</v>
+        <v>0.8049724970261333</v>
       </c>
       <c r="AL2">
-        <v>5.56</v>
+        <v>4.88</v>
       </c>
       <c r="AM2">
-        <v>3.779999999999999</v>
+        <v>2.32</v>
       </c>
       <c r="AN2">
-        <v>373.3878665899942</v>
+        <v>222.1174662568489</v>
       </c>
       <c r="AO2">
-        <v>59.78417266187051</v>
+        <v>147.6024590163934</v>
       </c>
       <c r="AP2">
-        <v>336.9321736630247</v>
+        <v>190.5409595082186</v>
       </c>
       <c r="AQ2">
-        <v>87.93650793650795</v>
+        <v>310.4741379310345</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Daou Tech, Inc. (KOSE:A023590)</t>
+          <t>Daou Technology Inc. (KOSE:A023590)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,121 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.339</v>
+        <v>0.392</v>
       </c>
       <c r="E3">
-        <v>0.281</v>
+        <v>0.225</v>
       </c>
       <c r="G3">
-        <v>0.1286278267535454</v>
+        <v>0.1039388568896766</v>
       </c>
       <c r="H3">
-        <v>0.1278650824070525</v>
+        <v>0.1035223748338503</v>
       </c>
       <c r="I3">
-        <v>0.1274051360674588</v>
+        <v>0.1595702259636686</v>
       </c>
       <c r="J3">
-        <v>0.08681787359480984</v>
+        <v>0.1132113756735613</v>
       </c>
       <c r="K3">
-        <v>98.8</v>
+        <v>239.7</v>
       </c>
       <c r="L3">
-        <v>0.03786891529321579</v>
+        <v>0.05310146211785556</v>
       </c>
       <c r="M3">
-        <v>45.3436</v>
+        <v>14.8952</v>
       </c>
       <c r="N3">
-        <v>0.06376543383490367</v>
+        <v>0.01710519062930638</v>
       </c>
       <c r="O3">
-        <v>0.4589433198380567</v>
+        <v>0.06214100959532749</v>
       </c>
       <c r="P3">
-        <v>12.6436</v>
+        <v>14.8952</v>
       </c>
       <c r="Q3">
-        <v>0.01778034031781746</v>
+        <v>0.01710519062930638</v>
       </c>
       <c r="R3">
-        <v>0.1279716599190283</v>
+        <v>0.06214100959532749</v>
       </c>
       <c r="S3">
-        <v>32.7</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.7211602078352843</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>351.2</v>
+        <v>761.4</v>
       </c>
       <c r="V3">
-        <v>0.4938827169174518</v>
+        <v>0.8743683968764355</v>
       </c>
       <c r="W3">
-        <v>0.09428380570665139</v>
+        <v>0.2224387527839644</v>
       </c>
       <c r="X3">
-        <v>0.3303489634073806</v>
+        <v>0.2812765058491341</v>
       </c>
       <c r="Y3">
-        <v>-0.2360651577007292</v>
+        <v>-0.05883775306516967</v>
       </c>
       <c r="Z3">
-        <v>0.3668757206738477</v>
+        <v>0.3889836788859591</v>
       </c>
       <c r="AA3">
-        <v>0.03185136994246687</v>
+        <v>0.04403737740124224</v>
       </c>
       <c r="AB3">
-        <v>0.04296321496014625</v>
+        <v>0.03842343707978799</v>
       </c>
       <c r="AC3">
-        <v>-0.01111184501767939</v>
+        <v>0.00561394032145425</v>
       </c>
       <c r="AD3">
-        <v>10927.3</v>
+        <v>13397.5</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>10927.3</v>
+        <v>13397.5</v>
       </c>
       <c r="AG3">
-        <v>10576.1</v>
+        <v>12636.1</v>
       </c>
       <c r="AH3">
-        <v>0.9389005361561726</v>
+        <v>0.9389696039472117</v>
       </c>
       <c r="AI3">
-        <v>0.8349991594455397</v>
+        <v>0.8368102834443042</v>
       </c>
       <c r="AJ3">
-        <v>0.9369994329860373</v>
+        <v>0.9355292480139781</v>
       </c>
       <c r="AK3">
-        <v>0.8304489847197576</v>
+        <v>0.8286619274959341</v>
       </c>
       <c r="AL3">
-        <v>5.56</v>
+        <v>4.88</v>
       </c>
       <c r="AM3">
-        <v>3.779999999999999</v>
+        <v>2.32</v>
       </c>
       <c r="AN3">
-        <v>31.41834387579068</v>
+        <v>17.90391554189496</v>
       </c>
       <c r="AO3">
-        <v>59.78417266187051</v>
+        <v>147.6024590163934</v>
       </c>
       <c r="AP3">
-        <v>30.40856814261069</v>
+        <v>16.88640919417346</v>
       </c>
       <c r="AQ3">
-        <v>87.93650793650795</v>
+        <v>310.4741379310345</v>
       </c>
     </row>
     <row r="4">
@@ -853,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DB Financial Investment Co., Ltd. (KOSE:A016610)</t>
+          <t>Woori Investment Bank Co., Ltd. (KOSE:A010050)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -874,85 +871,82 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>30</v>
+        <v>58.2</v>
       </c>
       <c r="L4">
-        <v>0.04656216048424647</v>
+        <v>0.4002751031636864</v>
       </c>
       <c r="M4">
-        <v>8.6526</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.057</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.28842</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>8.6526</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.057</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.28842</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>238</v>
+        <v>196.6</v>
       </c>
       <c r="V4">
-        <v>1.567852437417655</v>
+        <v>0.4557255447380621</v>
       </c>
       <c r="W4">
-        <v>0.05028494803888702</v>
+        <v>0.1989063568010936</v>
       </c>
       <c r="X4">
-        <v>0.390370923783639</v>
+        <v>0.04704346254037729</v>
       </c>
       <c r="Y4">
-        <v>-0.340085975744752</v>
+        <v>0.1518628942607164</v>
       </c>
       <c r="Z4">
-        <v>0.1884414027083151</v>
+        <v>0.3704458598726115</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04295166827124074</v>
+        <v>0.03246367452599575</v>
       </c>
       <c r="AC4">
-        <v>-0.04295166827124074</v>
+        <v>-0.03246367452599575</v>
       </c>
       <c r="AD4">
-        <v>2821.7</v>
+        <v>425.7</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>2821.7</v>
+        <v>425.7</v>
       </c>
       <c r="AG4">
-        <v>2583.7</v>
+        <v>229.1</v>
       </c>
       <c r="AH4">
-        <v>0.9489490499411467</v>
+        <v>0.4966748337416871</v>
       </c>
       <c r="AI4">
-        <v>0.8080701051003751</v>
+        <v>0.5428462127008415</v>
       </c>
       <c r="AJ4">
-        <v>0.9445074026686163</v>
+        <v>0.3468584405753217</v>
       </c>
       <c r="AK4">
-        <v>0.7940317772519131</v>
+        <v>0.3898910823689585</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -969,7 +963,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eugene Investment &amp; Securities Co.,Ltd. (KOSE:A001200)</t>
+          <t>Yuhwa Securities co.,ltd. (KOSE:A003460)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -990,85 +984,85 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>35.8</v>
+        <v>4.01</v>
       </c>
       <c r="L5">
-        <v>0.04737329628159322</v>
+        <v>0.2587096774193548</v>
       </c>
       <c r="M5">
-        <v>4.84</v>
+        <v>1.89</v>
       </c>
       <c r="N5">
-        <v>0.02523461939520334</v>
+        <v>0.01903323262839879</v>
       </c>
       <c r="O5">
-        <v>0.135195530726257</v>
+        <v>0.4713216957605985</v>
       </c>
       <c r="P5">
-        <v>4.84</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.02523461939520334</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.135195530726257</v>
+        <v>-0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>272.4</v>
+        <v>30.9</v>
       </c>
       <c r="V5">
-        <v>1.420229405630865</v>
+        <v>0.311178247734139</v>
       </c>
       <c r="W5">
-        <v>0.05347274085138162</v>
+        <v>0.01053322826372472</v>
       </c>
       <c r="X5">
-        <v>0.3304127120389168</v>
+        <v>0.04981408721759591</v>
       </c>
       <c r="Y5">
-        <v>-0.2769399711875352</v>
+        <v>-0.03928085895387119</v>
       </c>
       <c r="Z5">
-        <v>0.2411757196655391</v>
+        <v>0.03309137489325363</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04296320028572627</v>
+        <v>0.03258154407415695</v>
       </c>
       <c r="AC5">
-        <v>-0.04296320028572627</v>
+        <v>-0.03258154407415695</v>
       </c>
       <c r="AD5">
-        <v>2948</v>
+        <v>114.9</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>2948</v>
+        <v>114.9</v>
       </c>
       <c r="AG5">
-        <v>2675.6</v>
+        <v>84</v>
       </c>
       <c r="AH5">
-        <v>0.9389133065800369</v>
+        <v>0.5364145658263306</v>
       </c>
       <c r="AI5">
-        <v>0.8178892464765287</v>
+        <v>0.2293871032142144</v>
       </c>
       <c r="AJ5">
-        <v>0.9331101346167259</v>
+        <v>0.4582651391162029</v>
       </c>
       <c r="AK5">
-        <v>0.8030012004801921</v>
+        <v>0.1787234042553192</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1085,7 +1079,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hanyang Securities Co. Ltd. (KOSE:A001750)</t>
+          <t>Kyobo Securities Co ., Ltd (KOSE:A030610)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1093,6 +1087,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D6">
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.0458</v>
+      </c>
       <c r="G6">
         <v>0</v>
       </c>
@@ -1106,82 +1106,85 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.1</v>
+        <v>71.3</v>
       </c>
       <c r="L6">
-        <v>0.06720686367969494</v>
+        <v>0.06581133468709617</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>21.8784</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.04902173425946672</v>
       </c>
       <c r="O6">
-        <v>-0</v>
+        <v>0.3068499298737728</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>21.8784</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.04902173425946672</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>0.3068499298737728</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
-        <v>2.66</v>
+        <v>109.5</v>
       </c>
       <c r="V6">
-        <v>0.03078703703703704</v>
+        <v>0.2453506609903652</v>
       </c>
       <c r="W6">
-        <v>0.05872553102873802</v>
+        <v>0.08983243038931585</v>
       </c>
       <c r="X6">
-        <v>0.3142861962206834</v>
+        <v>0.1097346809233573</v>
       </c>
       <c r="Y6">
-        <v>-0.2555606651919454</v>
+        <v>-0.0199022505340414</v>
       </c>
       <c r="Z6">
-        <v>0.1989908187267623</v>
+        <v>0.4519250823843491</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0429671188938051</v>
+        <v>0.03344871334297168</v>
       </c>
       <c r="AC6">
-        <v>-0.0429671188938051</v>
+        <v>-0.03344871334297168</v>
       </c>
       <c r="AD6">
-        <v>1253.2</v>
+        <v>2160.3</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>1253.2</v>
+        <v>2160.3</v>
       </c>
       <c r="AG6">
-        <v>1250.54</v>
+        <v>2050.8</v>
       </c>
       <c r="AH6">
-        <v>0.9355031352642579</v>
+        <v>0.82878078723241</v>
       </c>
       <c r="AI6">
-        <v>0.8375325803649002</v>
+        <v>0.6713384505422791</v>
       </c>
       <c r="AJ6">
-        <v>0.9353748111358774</v>
+        <v>0.8212726763045132</v>
       </c>
       <c r="AK6">
-        <v>0.8372432446908225</v>
+        <v>0.6597606485651782</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1198,7 +1201,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOOKOOK Securities Co., Ltd. (KOSE:A001270)</t>
+          <t>EBEST Investment &amp; Securities Co., Ltd. (KOSDAQ:A078020)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1206,6 +1209,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D7">
+        <v>0.227</v>
+      </c>
+      <c r="E7">
+        <v>0.174</v>
+      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -1219,28 +1228,28 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20.2</v>
+        <v>86.5</v>
       </c>
       <c r="L7">
-        <v>0.03979511426319936</v>
+        <v>0.0580264305359898</v>
       </c>
       <c r="M7">
-        <v>6.85</v>
+        <v>14.9184</v>
       </c>
       <c r="N7">
-        <v>0.05546558704453441</v>
+        <v>0.04743529411764705</v>
       </c>
       <c r="O7">
-        <v>0.3391089108910891</v>
+        <v>0.1724670520231214</v>
       </c>
       <c r="P7">
-        <v>6.85</v>
+        <v>14.9184</v>
       </c>
       <c r="Q7">
-        <v>0.05546558704453441</v>
+        <v>0.04743529411764705</v>
       </c>
       <c r="R7">
-        <v>0.3391089108910891</v>
+        <v>0.1724670520231214</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1249,55 +1258,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>444.5</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>3.59919028340081</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.05044955044955045</v>
+        <v>0.2064931964669372</v>
       </c>
       <c r="X7">
-        <v>0.3090328826788802</v>
+        <v>0.1234510935263003</v>
       </c>
       <c r="Y7">
-        <v>-0.2585833322293297</v>
+        <v>0.08304210294063696</v>
       </c>
       <c r="Z7">
-        <v>0.4221205821205821</v>
+        <v>0.7814121717251141</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04296849163003354</v>
+        <v>0.03351277917454475</v>
       </c>
       <c r="AC7">
-        <v>-0.04296849163003354</v>
+        <v>-0.03351277917454475</v>
       </c>
       <c r="AD7">
-        <v>1756.5</v>
+        <v>1787.5</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>1756.5</v>
+        <v>1787.5</v>
       </c>
       <c r="AG7">
-        <v>1312</v>
+        <v>1787.5</v>
       </c>
       <c r="AH7">
-        <v>0.9343085106382979</v>
+        <v>0.8503805899143673</v>
       </c>
       <c r="AI7">
-        <v>0.8130438807628216</v>
+        <v>0.7473763431868546</v>
       </c>
       <c r="AJ7">
-        <v>0.913967258794845</v>
+        <v>0.8503805899143673</v>
       </c>
       <c r="AK7">
-        <v>0.7646133224546885</v>
+        <v>0.7473763431868546</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1314,7 +1323,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Daishin Securities Co., Ltd. (KOSE:A003540)</t>
+          <t>Samsung Securities Co., Ltd. (KOSE:A016360)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1322,6 +1331,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D8">
+        <v>0.165</v>
+      </c>
+      <c r="E8">
+        <v>0.102</v>
+      </c>
       <c r="G8">
         <v>0</v>
       </c>
@@ -1335,85 +1350,85 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>71.09999999999999</v>
+        <v>404</v>
       </c>
       <c r="L8">
-        <v>0.03474224285365257</v>
+        <v>0.05796685558504915</v>
       </c>
       <c r="M8">
-        <v>62.39340000000001</v>
+        <v>130.378</v>
       </c>
       <c r="N8">
-        <v>0.09715571473061352</v>
+        <v>0.0392752138811905</v>
       </c>
       <c r="O8">
-        <v>0.8775443037974685</v>
+        <v>0.3227178217821782</v>
       </c>
       <c r="P8">
-        <v>36.29340000000001</v>
+        <v>130.378</v>
       </c>
       <c r="Q8">
-        <v>0.05651417004048583</v>
+        <v>0.0392752138811905</v>
       </c>
       <c r="R8">
-        <v>0.5104556962025317</v>
+        <v>0.3227178217821782</v>
       </c>
       <c r="S8">
-        <v>26.1</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.418313475463751</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>762.6</v>
+        <v>2751.1</v>
       </c>
       <c r="V8">
-        <v>1.187480535658673</v>
+        <v>0.8287444270394023</v>
       </c>
       <c r="W8">
-        <v>0.04414503911585745</v>
+        <v>0.09942657445918342</v>
       </c>
       <c r="X8">
-        <v>0.2971669309319119</v>
+        <v>0.1368596988825194</v>
       </c>
       <c r="Y8">
-        <v>-0.2530218918160545</v>
+        <v>-0.03743312442333598</v>
       </c>
       <c r="Z8">
-        <v>0.2127891863789966</v>
+        <v>0.3896514130769016</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04297178763250412</v>
+        <v>0.03356149844044477</v>
       </c>
       <c r="AC8">
-        <v>-0.04297178763250412</v>
+        <v>-0.03356149844044477</v>
       </c>
       <c r="AD8">
-        <v>8724.799999999999</v>
+        <v>21603.5</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>8724.799999999999</v>
+        <v>21603.5</v>
       </c>
       <c r="AG8">
-        <v>7962.199999999999</v>
+        <v>18852.4</v>
       </c>
       <c r="AH8">
-        <v>0.9314401622718051</v>
+        <v>0.8668062961670098</v>
       </c>
       <c r="AI8">
-        <v>0.8364619484976895</v>
+        <v>0.8286982339312292</v>
       </c>
       <c r="AJ8">
-        <v>0.9253637673748314</v>
+        <v>0.8502796319682483</v>
       </c>
       <c r="AK8">
-        <v>0.8235622672734796</v>
+        <v>0.8084878270528044</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1430,7 +1445,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hyundai Motor Securities Co., Ltd. (KOSE:A001500)</t>
+          <t>SK Securities Co., Ltd. (KOSE:A001510)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1438,6 +1453,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D9">
+        <v>0.119</v>
+      </c>
+      <c r="E9">
+        <v>-0.233</v>
+      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -1451,85 +1472,85 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>56.3</v>
+        <v>6.28</v>
       </c>
       <c r="L9">
-        <v>0.1130976295701085</v>
+        <v>0.009364747986877423</v>
       </c>
       <c r="M9">
-        <v>10.9875</v>
+        <v>19.5517</v>
       </c>
       <c r="N9">
-        <v>0.04308823529411765</v>
+        <v>0.057505</v>
       </c>
       <c r="O9">
-        <v>0.1951598579040853</v>
+        <v>3.113328025477707</v>
       </c>
       <c r="P9">
-        <v>10.9875</v>
+        <v>4.1517</v>
       </c>
       <c r="Q9">
-        <v>0.04308823529411765</v>
+        <v>0.01221088235294118</v>
       </c>
       <c r="R9">
-        <v>0.1951598579040853</v>
+        <v>0.6610987261146496</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.7876552934015968</v>
       </c>
       <c r="U9">
-        <v>237.6</v>
+        <v>132.2</v>
       </c>
       <c r="V9">
-        <v>0.9317647058823529</v>
+        <v>0.3888235294117647</v>
       </c>
       <c r="W9">
-        <v>0.07082651905900113</v>
+        <v>0.01331072488342518</v>
       </c>
       <c r="X9">
-        <v>0.2891897893074822</v>
+        <v>0.1634350550832651</v>
       </c>
       <c r="Y9">
-        <v>-0.2183632702484811</v>
+        <v>-0.15012433019984</v>
       </c>
       <c r="Z9">
-        <v>0.1362752881272414</v>
+        <v>0.2669022857438518</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04297417012786311</v>
+        <v>0.03363209641101324</v>
       </c>
       <c r="AC9">
-        <v>-0.04297417012786311</v>
+        <v>-0.03363209641101324</v>
       </c>
       <c r="AD9">
-        <v>3355.2</v>
+        <v>2768.1</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>3355.2</v>
+        <v>2768.1</v>
       </c>
       <c r="AG9">
-        <v>3117.6</v>
+        <v>2635.9</v>
       </c>
       <c r="AH9">
-        <v>0.9293667940834303</v>
+        <v>0.8906084102828095</v>
       </c>
       <c r="AI9">
-        <v>0.8203623560478251</v>
+        <v>0.8500230308613542</v>
       </c>
       <c r="AJ9">
-        <v>0.9243906778153353</v>
+        <v>0.8857488490876709</v>
       </c>
       <c r="AK9">
-        <v>0.8092827661397087</v>
+        <v>0.8436769836443363</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1546,7 +1567,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Yuanta Securities Korea Co., Ltd. (KOSE:A003470)</t>
+          <t>Meritz Securities Co., Ltd. (KOSE:A008560)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1554,6 +1575,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D10">
+        <v>0.419</v>
+      </c>
+      <c r="E10">
+        <v>0.149</v>
+      </c>
       <c r="G10">
         <v>0</v>
       </c>
@@ -1567,82 +1594,85 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>62.1</v>
+        <v>496.1</v>
       </c>
       <c r="L10">
-        <v>0.03577395011233366</v>
+        <v>0.04064494457507558</v>
       </c>
       <c r="M10">
-        <v>-0</v>
+        <v>108.8416</v>
       </c>
       <c r="N10">
-        <v>-0</v>
+        <v>0.05106577836164023</v>
       </c>
       <c r="O10">
-        <v>-0</v>
+        <v>0.2193944769199758</v>
       </c>
       <c r="P10">
-        <v>-0</v>
+        <v>108.8416</v>
       </c>
       <c r="Q10">
-        <v>-0</v>
+        <v>0.05106577836164023</v>
       </c>
       <c r="R10">
-        <v>-0</v>
+        <v>0.2193944769199758</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
       <c r="U10">
-        <v>701.3</v>
+        <v>1639.8</v>
       </c>
       <c r="V10">
-        <v>1.46869109947644</v>
+        <v>0.769353476588158</v>
       </c>
       <c r="W10">
-        <v>0.06156438980866462</v>
+        <v>0.1723706612000973</v>
       </c>
       <c r="X10">
-        <v>0.2294565119972689</v>
+        <v>0.1921345109007855</v>
       </c>
       <c r="Y10">
-        <v>-0.1678921221886042</v>
+        <v>-0.01976384970068815</v>
       </c>
       <c r="Z10">
-        <v>0.3123133388507072</v>
+        <v>0.5986590414157069</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.04299793047801619</v>
+        <v>0.0336845833901825</v>
       </c>
       <c r="AC10">
-        <v>-0.04299793047801619</v>
+        <v>-0.0336845833901825</v>
       </c>
       <c r="AD10">
-        <v>4751.9</v>
+        <v>21112.9</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>4751.9</v>
+        <v>21112.9</v>
       </c>
       <c r="AG10">
-        <v>4050.599999999999</v>
+        <v>19473.1</v>
       </c>
       <c r="AH10">
-        <v>0.9086893333843271</v>
+        <v>0.9083044015091871</v>
       </c>
       <c r="AI10">
-        <v>0.8210626349892008</v>
+        <v>0.8413156353232304</v>
       </c>
       <c r="AJ10">
-        <v>0.8945473819041099</v>
+        <v>0.9013446272767247</v>
       </c>
       <c r="AK10">
-        <v>0.7963902323935355</v>
+        <v>0.8302217409284895</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1659,7 +1689,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Meritz Securities Co., Ltd. (KOSE:A008560)</t>
+          <t>Shinyoung Securities Co., Ltd. (KOSE:A001720)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1667,8 +1697,11 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="F11">
-        <v>0.008</v>
+      <c r="D11">
+        <v>0.0574</v>
+      </c>
+      <c r="E11">
+        <v>0.00195</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1683,85 +1716,85 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>417.2</v>
+        <v>66.2</v>
       </c>
       <c r="L11">
-        <v>0.0499007248283616</v>
+        <v>0.0280734489631483</v>
       </c>
       <c r="M11">
-        <v>95.89140000000002</v>
+        <v>37.6</v>
       </c>
       <c r="N11">
-        <v>0.05094373904266059</v>
+        <v>0.09533468559837729</v>
       </c>
       <c r="O11">
-        <v>0.2298451581975073</v>
+        <v>0.56797583081571</v>
       </c>
       <c r="P11">
-        <v>95.89140000000002</v>
+        <v>20.1</v>
       </c>
       <c r="Q11">
-        <v>0.05094373904266059</v>
+        <v>0.0509634888438134</v>
       </c>
       <c r="R11">
-        <v>0.2298451581975073</v>
+        <v>0.3036253776435046</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.4654255319148936</v>
       </c>
       <c r="U11">
-        <v>837.5</v>
+        <v>132.2</v>
       </c>
       <c r="V11">
-        <v>0.4449343887796844</v>
+        <v>0.3351926977687626</v>
       </c>
       <c r="W11">
-        <v>0.1468600394255139</v>
+        <v>0.06845207320856168</v>
       </c>
       <c r="X11">
-        <v>0.2247306659623869</v>
+        <v>0.2017414781351288</v>
       </c>
       <c r="Y11">
-        <v>-0.07787062653687302</v>
+        <v>-0.1332894049265671</v>
       </c>
       <c r="Z11">
-        <v>0.5100881608248681</v>
+        <v>0.6189726225162085</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04300041822110685</v>
+        <v>0.03369855434550825</v>
       </c>
       <c r="AC11">
-        <v>-0.04300041822110685</v>
+        <v>-0.03369855434550825</v>
       </c>
       <c r="AD11">
-        <v>18254.5</v>
+        <v>4139.7</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>18254.5</v>
+        <v>4139.7</v>
       </c>
       <c r="AG11">
-        <v>17417</v>
+        <v>4007.5</v>
       </c>
       <c r="AH11">
-        <v>0.9065243732867189</v>
+        <v>0.9130147107474472</v>
       </c>
       <c r="AI11">
-        <v>0.8566527915303791</v>
+        <v>0.7942937181012319</v>
       </c>
       <c r="AJ11">
-        <v>0.9024679651593581</v>
+        <v>0.9104023262682024</v>
       </c>
       <c r="AK11">
-        <v>0.8507884093085055</v>
+        <v>0.7889400740215764</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1778,7 +1811,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hanwha Investment &amp; Securities Co., Ltd. (KOSE:A003530)</t>
+          <t>Daishin Securities Co., Ltd. (KOSE:A003540)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1786,6 +1819,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D12">
+        <v>-0.06909999999999999</v>
+      </c>
+      <c r="E12">
+        <v>-0.068</v>
+      </c>
       <c r="G12">
         <v>0</v>
       </c>
@@ -1799,82 +1838,85 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>61.4</v>
+        <v>80.8</v>
       </c>
       <c r="L12">
-        <v>0.04636761818456427</v>
+        <v>0.03941463414634146</v>
       </c>
       <c r="M12">
-        <v>-0</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="N12">
-        <v>-0</v>
+        <v>0.0942523136872869</v>
       </c>
       <c r="O12">
-        <v>-0</v>
+        <v>0.957920792079208</v>
       </c>
       <c r="P12">
-        <v>-0</v>
+        <v>58.9</v>
       </c>
       <c r="Q12">
-        <v>-0</v>
+        <v>0.07172430589381393</v>
       </c>
       <c r="R12">
-        <v>-0</v>
+        <v>0.7289603960396039</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>18.50000000000001</v>
+      </c>
+      <c r="T12">
+        <v>0.2390180878552972</v>
       </c>
       <c r="U12">
-        <v>156.3</v>
+        <v>835.7</v>
       </c>
       <c r="V12">
-        <v>0.4091623036649215</v>
+        <v>1.017657087189479</v>
       </c>
       <c r="W12">
-        <v>0.07465953307392996</v>
+        <v>0.04815543238572024</v>
       </c>
       <c r="X12">
-        <v>0.2228710793567387</v>
+        <v>0.2124373024178876</v>
       </c>
       <c r="Y12">
-        <v>-0.1482115462828088</v>
+        <v>-0.1642818700321673</v>
       </c>
       <c r="Z12">
-        <v>0.3245111013086311</v>
+        <v>0.2145271507654957</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04300142977744484</v>
+        <v>0.03371251153114205</v>
       </c>
       <c r="AC12">
-        <v>-0.04300142977744484</v>
+        <v>-0.03371251153114205</v>
       </c>
       <c r="AD12">
-        <v>3666.5</v>
+        <v>9159.4</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>3666.5</v>
+        <v>9159.4</v>
       </c>
       <c r="AG12">
-        <v>3510.2</v>
+        <v>8323.699999999999</v>
       </c>
       <c r="AH12">
-        <v>0.9056440657033469</v>
+        <v>0.9177203775324128</v>
       </c>
       <c r="AI12">
-        <v>0.7957677699403147</v>
+        <v>0.8372930626274077</v>
       </c>
       <c r="AJ12">
-        <v>0.9018549920353528</v>
+        <v>0.910201314393815</v>
       </c>
       <c r="AK12">
-        <v>0.7885963335729691</v>
+        <v>0.8238350686883883</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1891,7 +1933,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SK Securities Co., Ltd. (KOSE:A001510)</t>
+          <t>BOOKOOK Securities Co., Ltd. (KOSE:A001270)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1912,28 +1954,28 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>27.1</v>
+        <v>43</v>
       </c>
       <c r="L13">
-        <v>0.06534844465878949</v>
+        <v>0.06264568764568765</v>
       </c>
       <c r="M13">
-        <v>3.6904</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="N13">
-        <v>0.01523699421965318</v>
+        <v>0.05335628227194492</v>
       </c>
       <c r="O13">
-        <v>0.1361771217712177</v>
+        <v>0.2162790697674419</v>
       </c>
       <c r="P13">
-        <v>3.6904</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q13">
-        <v>0.01523699421965318</v>
+        <v>0.05335628227194492</v>
       </c>
       <c r="R13">
-        <v>0.1361771217712177</v>
+        <v>0.2162790697674419</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1942,55 +1984,55 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>120.3</v>
+        <v>360</v>
       </c>
       <c r="V13">
-        <v>0.4966969446738233</v>
+        <v>2.065404475043029</v>
       </c>
       <c r="W13">
-        <v>0.06790278125783011</v>
+        <v>0.1066203818497396</v>
       </c>
       <c r="X13">
-        <v>0.2101569772872595</v>
+        <v>0.2316931443013877</v>
       </c>
       <c r="Y13">
-        <v>-0.1422541960294294</v>
+        <v>-0.125072762451648</v>
       </c>
       <c r="Z13">
-        <v>0.1667162487034967</v>
+        <v>0.4001632367515886</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04300889141995719</v>
+        <v>0.03373417015035771</v>
       </c>
       <c r="AC13">
-        <v>-0.04300889141995719</v>
+        <v>-0.03373417015035771</v>
       </c>
       <c r="AD13">
-        <v>2159.4</v>
+        <v>2150.4</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>2159.4</v>
+        <v>2150.4</v>
       </c>
       <c r="AG13">
-        <v>2039.1</v>
+        <v>1790.4</v>
       </c>
       <c r="AH13">
-        <v>0.8991505662891407</v>
+        <v>0.9250225835591689</v>
       </c>
       <c r="AI13">
-        <v>0.8201602795396711</v>
+        <v>0.8240343347639486</v>
       </c>
       <c r="AJ13">
-        <v>0.8938324639459957</v>
+        <v>0.9112841655214536</v>
       </c>
       <c r="AK13">
-        <v>0.8115497890631218</v>
+        <v>0.7958748221906118</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2007,7 +2049,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Shinyoung Securities Co., Ltd. (KOSE:A001720)</t>
+          <t>Hyundai Motor Securities Co., Ltd. (KOSE:A001500)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2016,10 +2058,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.0332</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="E14">
-        <v>-0.0209</v>
+        <v>0.17</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2034,85 +2076,85 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>41.8</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="L14">
-        <v>0.03016961385781306</v>
+        <v>0.1410359851541068</v>
       </c>
       <c r="M14">
-        <v>28.6955</v>
+        <v>15.0895</v>
       </c>
       <c r="N14">
-        <v>0.06866594879157693</v>
+        <v>0.04442007653812188</v>
       </c>
       <c r="O14">
-        <v>0.6864952153110048</v>
+        <v>0.1726487414187643</v>
       </c>
       <c r="P14">
-        <v>20.4955</v>
+        <v>15.0895</v>
       </c>
       <c r="Q14">
-        <v>0.04904402967217038</v>
+        <v>0.04442007653812188</v>
       </c>
       <c r="R14">
-        <v>0.490322966507177</v>
+        <v>0.1726487414187643</v>
       </c>
       <c r="S14">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0.2857590911466955</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>207.7</v>
+        <v>398</v>
       </c>
       <c r="V14">
-        <v>0.4970088537927734</v>
+        <v>1.171622019428908</v>
       </c>
       <c r="W14">
-        <v>0.04194681384846964</v>
+        <v>0.1189601197767796</v>
       </c>
       <c r="X14">
-        <v>0.1800361022684734</v>
+        <v>0.2648994827847746</v>
       </c>
       <c r="Y14">
-        <v>-0.1380892884200037</v>
+        <v>-0.145939363007995</v>
       </c>
       <c r="Z14">
-        <v>0.3315148469839447</v>
+        <v>0.1608649378293487</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.04303146577475504</v>
+        <v>0.03376368774879573</v>
       </c>
       <c r="AC14">
-        <v>-0.04303146577475504</v>
+        <v>-0.03376368774879573</v>
       </c>
       <c r="AD14">
-        <v>3050.3</v>
+        <v>4884.4</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>3050.3</v>
+        <v>4884.4</v>
       </c>
       <c r="AG14">
-        <v>2842.6</v>
+        <v>4486.4</v>
       </c>
       <c r="AH14">
-        <v>0.8795052188455106</v>
+        <v>0.9349744453590092</v>
       </c>
       <c r="AI14">
-        <v>0.7544458460092504</v>
+        <v>0.8414560614674316</v>
       </c>
       <c r="AJ14">
-        <v>0.8718294740070541</v>
+        <v>0.9296119019498146</v>
       </c>
       <c r="AK14">
-        <v>0.7411482505084216</v>
+        <v>0.8297852664286903</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2129,7 +2171,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Korea Investment Holdings Co., Ltd. (KOSE:A071050)</t>
+          <t>Hanyang Securities Co. Ltd. (KOSE:A001750)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2137,9 +2179,6 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="F15">
-        <v>0.01</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
@@ -2153,85 +2192,82 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>579.6</v>
+        <v>25.8</v>
       </c>
       <c r="L15">
-        <v>0.06706703231853368</v>
+        <v>0.07796917497733455</v>
       </c>
       <c r="M15">
-        <v>79.05000000000001</v>
+        <v>-0</v>
       </c>
       <c r="N15">
-        <v>0.02393423761656776</v>
+        <v>-0</v>
       </c>
       <c r="O15">
-        <v>0.1363871635610766</v>
+        <v>-0</v>
       </c>
       <c r="P15">
-        <v>79.05000000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q15">
-        <v>0.02393423761656776</v>
+        <v>-0</v>
       </c>
       <c r="R15">
-        <v>0.1363871635610766</v>
+        <v>-0</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
       <c r="U15">
-        <v>6200.4</v>
+        <v>57.7</v>
       </c>
       <c r="V15">
-        <v>1.877316216543539</v>
+        <v>0.5347544022242817</v>
       </c>
       <c r="W15">
-        <v>0.1493660447376559</v>
+        <v>0.1064795707800248</v>
       </c>
       <c r="X15">
-        <v>0.1681100677808957</v>
+        <v>0.2707873382252893</v>
       </c>
       <c r="Y15">
-        <v>-0.0187440230432398</v>
+        <v>-0.1643077674452645</v>
       </c>
       <c r="Z15">
-        <v>0.5914183062446535</v>
+        <v>0.2315232677735564</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.04304303747963563</v>
+        <v>0.03376812248876793</v>
       </c>
       <c r="AC15">
-        <v>-0.04304303747963563</v>
+        <v>-0.03376812248876793</v>
       </c>
       <c r="AD15">
-        <v>21993.4</v>
+        <v>1590.5</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>21993.4</v>
+        <v>1590.5</v>
       </c>
       <c r="AG15">
-        <v>15793</v>
+        <v>1532.8</v>
       </c>
       <c r="AH15">
-        <v>0.8694349348914067</v>
+        <v>0.9364696184644371</v>
       </c>
       <c r="AI15">
-        <v>0.8418075203625451</v>
+        <v>0.857273756265833</v>
       </c>
       <c r="AJ15">
-        <v>0.8270405010525874</v>
+        <v>0.9342353873346741</v>
       </c>
       <c r="AK15">
-        <v>0.7925825554551843</v>
+        <v>0.8526924788607032</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2248,7 +2284,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EBEST Investment &amp; Securities Co., Ltd. (KOSDAQ:A078020)</t>
+          <t>DB Financial Investment Co., Ltd. (KOSE:A016610)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2256,6 +2292,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D16">
+        <v>0.022</v>
+      </c>
+      <c r="E16">
+        <v>0.608</v>
+      </c>
       <c r="G16">
         <v>0</v>
       </c>
@@ -2269,28 +2311,28 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>30.8</v>
+        <v>51.5</v>
       </c>
       <c r="L16">
-        <v>0.03504779244424215</v>
+        <v>0.04314678284182306</v>
       </c>
       <c r="M16">
-        <v>20.6955</v>
+        <v>8.901</v>
       </c>
       <c r="N16">
-        <v>0.08368580671249495</v>
+        <v>0.0502313769751693</v>
       </c>
       <c r="O16">
-        <v>0.6719318181818182</v>
+        <v>0.1728349514563107</v>
       </c>
       <c r="P16">
-        <v>20.6955</v>
+        <v>8.901</v>
       </c>
       <c r="Q16">
-        <v>0.08368580671249495</v>
+        <v>0.0502313769751693</v>
       </c>
       <c r="R16">
-        <v>0.6719318181818182</v>
+        <v>0.1728349514563107</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2299,55 +2341,55 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>315.3</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1.779345372460497</v>
       </c>
       <c r="W16">
-        <v>0.08413001912045889</v>
+        <v>0.08913118726202839</v>
       </c>
       <c r="X16">
-        <v>0.1562082505219627</v>
+        <v>0.3144208375926828</v>
       </c>
       <c r="Y16">
-        <v>-0.0720782314015038</v>
+        <v>-0.2252896503306544</v>
       </c>
       <c r="Z16">
-        <v>2.400437039060366</v>
+        <v>0.377542305867468</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.04305668946166755</v>
+        <v>0.03379555679900917</v>
       </c>
       <c r="AC16">
-        <v>-0.04305668946166755</v>
+        <v>-0.03379555679900917</v>
       </c>
       <c r="AD16">
-        <v>1488.8</v>
+        <v>3087.3</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>1488.8</v>
+        <v>3087.3</v>
       </c>
       <c r="AG16">
-        <v>1488.8</v>
+        <v>2772</v>
       </c>
       <c r="AH16">
-        <v>0.8575542883474454</v>
+        <v>0.9457190994026651</v>
       </c>
       <c r="AI16">
-        <v>0.7804162079991613</v>
+        <v>0.8054106229781905</v>
       </c>
       <c r="AJ16">
-        <v>0.8575542883474454</v>
+        <v>0.9399159093991591</v>
       </c>
       <c r="AK16">
-        <v>0.7804162079991613</v>
+        <v>0.7879700957957873</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2364,7 +2406,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kyobo Securities Co ., Ltd (KOSE:A030610)</t>
+          <t>NH Investment &amp; Securities Co., Ltd. (KOSE:A005940)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2372,6 +2414,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D17">
+        <v>0.0808</v>
+      </c>
+      <c r="E17">
+        <v>0.2</v>
+      </c>
       <c r="G17">
         <v>0</v>
       </c>
@@ -2385,28 +2433,28 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>70.2</v>
+        <v>530.7</v>
       </c>
       <c r="L17">
-        <v>0.06563814866760169</v>
+        <v>0.05936972110662386</v>
       </c>
       <c r="M17">
-        <v>10.1908</v>
+        <v>129.5</v>
       </c>
       <c r="N17">
-        <v>0.03660488505747127</v>
+        <v>0.04165996461315747</v>
       </c>
       <c r="O17">
-        <v>0.1451680911680912</v>
+        <v>0.2440173355944978</v>
       </c>
       <c r="P17">
-        <v>10.1908</v>
+        <v>129.5</v>
       </c>
       <c r="Q17">
-        <v>0.03660488505747127</v>
+        <v>0.04165996461315747</v>
       </c>
       <c r="R17">
-        <v>0.1451680911680912</v>
+        <v>0.2440173355944978</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2415,55 +2463,55 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>49.2</v>
+        <v>1012.2</v>
       </c>
       <c r="V17">
-        <v>0.1767241379310345</v>
+        <v>0.3256232909763552</v>
       </c>
       <c r="W17">
-        <v>0.08927890118275468</v>
+        <v>0.1195081856464071</v>
       </c>
       <c r="X17">
-        <v>0.1546536924663078</v>
+        <v>0.1457224391247931</v>
       </c>
       <c r="Y17">
-        <v>-0.06537479128355307</v>
+        <v>-0.02621425347838602</v>
       </c>
       <c r="Z17">
-        <v>0.4358901206390609</v>
+        <v>0.3814972408465672</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.04305865827419611</v>
+        <v>0.03584349600135868</v>
       </c>
       <c r="AC17">
-        <v>-0.04305865827419611</v>
+        <v>-0.03584349600135868</v>
       </c>
       <c r="AD17">
-        <v>1652.8</v>
+        <v>21923.2</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>1652.8</v>
+        <v>21923.2</v>
       </c>
       <c r="AG17">
-        <v>1603.6</v>
+        <v>20911</v>
       </c>
       <c r="AH17">
-        <v>0.8558409279204641</v>
+        <v>0.8758174634563374</v>
       </c>
       <c r="AI17">
-        <v>0.6755773554056815</v>
+        <v>0.8155284909717211</v>
       </c>
       <c r="AJ17">
-        <v>0.8520722635494155</v>
+        <v>0.8705843169091779</v>
       </c>
       <c r="AK17">
-        <v>0.6689192007675301</v>
+        <v>0.8083107846926942</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2480,7 +2528,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Samsung Securities Co.,Ltd. (KOSE:A016360)</t>
+          <t>Sangsangin Investment &amp; Securities Co.,Ltd. (KOSE:A001290)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2488,8 +2536,11 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="F18">
-        <v>0.004</v>
+      <c r="D18">
+        <v>-0.151</v>
+      </c>
+      <c r="E18">
+        <v>0.186</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2504,85 +2555,82 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>283.3</v>
+        <v>4.65</v>
       </c>
       <c r="L18">
-        <v>0.05856451812957374</v>
+        <v>0.1637323943661972</v>
       </c>
       <c r="M18">
-        <v>104.481</v>
+        <v>-0</v>
       </c>
       <c r="N18">
-        <v>0.03504192379930238</v>
+        <v>-0</v>
       </c>
       <c r="O18">
-        <v>0.3687998588069184</v>
+        <v>-0</v>
       </c>
       <c r="P18">
-        <v>104.481</v>
+        <v>-0</v>
       </c>
       <c r="Q18">
-        <v>0.03504192379930238</v>
+        <v>-0</v>
       </c>
       <c r="R18">
-        <v>0.3687998588069184</v>
+        <v>-0</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
       <c r="U18">
-        <v>884</v>
+        <v>8.1</v>
       </c>
       <c r="V18">
-        <v>0.2964851086664878</v>
+        <v>0.08842794759825327</v>
       </c>
       <c r="W18">
-        <v>0.06772813120084153</v>
+        <v>0.03649921507064365</v>
       </c>
       <c r="X18">
-        <v>0.135945206226753</v>
+        <v>0.06611921221546178</v>
       </c>
       <c r="Y18">
-        <v>-0.06821707502591148</v>
+        <v>-0.02961999714481814</v>
       </c>
       <c r="Z18">
-        <v>0.2905746739789881</v>
+        <v>0.08064287134054574</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.04308669567154043</v>
+        <v>0.03640099600305245</v>
       </c>
       <c r="AC18">
-        <v>-0.04308669567154043</v>
+        <v>-0.03640099600305245</v>
       </c>
       <c r="AD18">
-        <v>14707.2</v>
+        <v>197.8</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>14707.2</v>
+        <v>197.8</v>
       </c>
       <c r="AG18">
-        <v>13823.2</v>
+        <v>189.7</v>
       </c>
       <c r="AH18">
-        <v>0.831441364026955</v>
+        <v>0.6834830684174155</v>
       </c>
       <c r="AI18">
-        <v>0.7835273434378414</v>
+        <v>0.5803990610328639</v>
       </c>
       <c r="AJ18">
-        <v>0.8225745025230887</v>
+        <v>0.6743690010664771</v>
       </c>
       <c r="AK18">
-        <v>0.7728286696670674</v>
+        <v>0.5701833483618876</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -2599,7 +2647,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Yuhwa Securities co.,ltd. (KOSE:A003460)</t>
+          <t>Kiwoom Securities Co., Ltd. (KOSE:A039490)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2607,6 +2655,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D19">
+        <v>0.428</v>
+      </c>
+      <c r="E19">
+        <v>0.26</v>
+      </c>
       <c r="G19">
         <v>0</v>
       </c>
@@ -2620,85 +2674,85 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.58</v>
+        <v>494.2</v>
       </c>
       <c r="L19">
-        <v>0.2993464052287582</v>
+        <v>0.1323230159580165</v>
       </c>
       <c r="M19">
-        <v>1.68</v>
+        <v>49.7</v>
       </c>
       <c r="N19">
-        <v>0.01681681681681681</v>
+        <v>0.0161117774824132</v>
       </c>
       <c r="O19">
-        <v>0.3668122270742358</v>
+        <v>0.1005665722379604</v>
       </c>
       <c r="P19">
-        <v>-0</v>
+        <v>49.7</v>
       </c>
       <c r="Q19">
-        <v>-0</v>
+        <v>0.0161117774824132</v>
       </c>
       <c r="R19">
-        <v>-0</v>
+        <v>0.1005665722379604</v>
       </c>
       <c r="S19">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>52.9</v>
+        <v>730.9</v>
       </c>
       <c r="V19">
-        <v>0.5295295295295295</v>
+        <v>0.2369436249878432</v>
       </c>
       <c r="W19">
-        <v>0.01162731657781163</v>
+        <v>0.2714340638216071</v>
       </c>
       <c r="X19">
-        <v>0.05789921752975141</v>
+        <v>0.08175495857365264</v>
       </c>
       <c r="Y19">
-        <v>-0.04627190095193978</v>
+        <v>0.1896791052479544</v>
       </c>
       <c r="Z19">
-        <v>0.0318882867861609</v>
+        <v>0.4938186722375746</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.04355198703743909</v>
+        <v>0.03698543490307338</v>
       </c>
       <c r="AC19">
-        <v>-0.04355198703743909</v>
+        <v>-0.03698543490307338</v>
       </c>
       <c r="AD19">
-        <v>74.3</v>
+        <v>9625.9</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>74.3</v>
+        <v>9625.9</v>
       </c>
       <c r="AG19">
-        <v>21.4</v>
+        <v>8895</v>
       </c>
       <c r="AH19">
-        <v>0.4265212399540758</v>
+        <v>0.7573127940459145</v>
       </c>
       <c r="AI19">
-        <v>0.1618736383442266</v>
+        <v>0.8093344319634089</v>
       </c>
       <c r="AJ19">
-        <v>0.1764220939818631</v>
+        <v>0.7425060727731078</v>
       </c>
       <c r="AK19">
-        <v>0.05269638020192071</v>
+        <v>0.7968502244080733</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -2715,7 +2769,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NH Investment &amp; Securities Co., Ltd. (KOSE:A005940)</t>
+          <t>Korea Investment Holdings Co., Ltd. (KOSE:A071050)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2723,8 +2777,11 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="F20">
-        <v>0.003</v>
+      <c r="D20">
+        <v>0.423</v>
+      </c>
+      <c r="E20">
+        <v>0.121</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2739,85 +2796,85 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>308.2</v>
+        <v>578.1</v>
       </c>
       <c r="L20">
-        <v>0.02992029667886648</v>
+        <v>0.0499339224171439</v>
       </c>
       <c r="M20">
-        <v>116.9695</v>
+        <v>146.3</v>
       </c>
       <c r="N20">
-        <v>0.03796478416098669</v>
+        <v>0.03450715852536736</v>
       </c>
       <c r="O20">
-        <v>0.379524659312135</v>
+        <v>0.253070403044456</v>
       </c>
       <c r="P20">
-        <v>116.9685</v>
+        <v>146.3</v>
       </c>
       <c r="Q20">
-        <v>0.03796445959104187</v>
+        <v>0.03450715852536736</v>
       </c>
       <c r="R20">
-        <v>0.3795214146658014</v>
+        <v>0.253070403044456</v>
       </c>
       <c r="S20">
-        <v>0.001000000000004775</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>8.549237194352159e-06</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>745.9</v>
+        <v>12484.6</v>
       </c>
       <c r="V20">
-        <v>0.2420967218435573</v>
+        <v>2.944689482746421</v>
       </c>
       <c r="W20">
-        <v>0.06955383539076075</v>
+        <v>0.1407493974143598</v>
       </c>
       <c r="X20">
-        <v>0.1635937998618668</v>
+        <v>0.1471787049796882</v>
       </c>
       <c r="Y20">
-        <v>-0.09403996447110603</v>
+        <v>-0.006429307565328418</v>
       </c>
       <c r="Z20">
-        <v>0.4740465638561757</v>
+        <v>0.5825349703129716</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.04510357933355601</v>
+        <v>0.03793433014428751</v>
       </c>
       <c r="AC20">
-        <v>-0.04510357933355601</v>
+        <v>-0.03793433014428751</v>
       </c>
       <c r="AD20">
-        <v>19769.6</v>
+        <v>30280.7</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>19769.6</v>
+        <v>30280.7</v>
       </c>
       <c r="AG20">
-        <v>19023.7</v>
+        <v>17796.1</v>
       </c>
       <c r="AH20">
-        <v>0.8651676542410265</v>
+        <v>0.8771827672912249</v>
       </c>
       <c r="AI20">
-        <v>0.8163757469142685</v>
+        <v>0.8683534357668462</v>
       </c>
       <c r="AJ20">
-        <v>0.8606178776459305</v>
+        <v>0.8075994518011599</v>
       </c>
       <c r="AK20">
-        <v>0.8105400845320062</v>
+        <v>0.7949371951328461</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -2834,7 +2891,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Woori Investment Bank Co., Ltd. (KOSE:A010050)</t>
+          <t>Hanwha Investment &amp; Securities Co., Ltd. (KOSE:A003530)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2842,6 +2899,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D21">
+        <v>0.0578</v>
+      </c>
+      <c r="E21">
+        <v>0.257</v>
+      </c>
       <c r="G21">
         <v>0</v>
       </c>
@@ -2855,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>33.8</v>
+        <v>62.7</v>
       </c>
       <c r="L21">
-        <v>0.3262548262548263</v>
+        <v>0.03180158247108947</v>
       </c>
       <c r="M21">
         <v>-0</v>
@@ -2882,55 +2945,55 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>74.5</v>
+        <v>195.1</v>
       </c>
       <c r="V21">
-        <v>0.2002149959688256</v>
+        <v>0.443509888611048</v>
       </c>
       <c r="W21">
-        <v>0.1177700348432056</v>
+        <v>0.06823375775383611</v>
       </c>
       <c r="X21">
-        <v>0.05277455563155178</v>
+        <v>0.1953668269310487</v>
       </c>
       <c r="Y21">
-        <v>0.06499547921165379</v>
+        <v>-0.1271330691772126</v>
       </c>
       <c r="Z21">
-        <v>0.4455913978494624</v>
+        <v>0.4454385251457232</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0.04511144682035597</v>
+        <v>0.03819367829338895</v>
       </c>
       <c r="AC21">
-        <v>-0.04511144682035597</v>
+        <v>-0.03819367829338895</v>
       </c>
       <c r="AD21">
-        <v>174.4</v>
+        <v>4444.9</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>174.4</v>
+        <v>4444.9</v>
       </c>
       <c r="AG21">
-        <v>99.90000000000001</v>
+        <v>4249.799999999999</v>
       </c>
       <c r="AH21">
-        <v>0.3191216834400732</v>
+        <v>0.9099451359318703</v>
       </c>
       <c r="AI21">
-        <v>0.3734475374732334</v>
+        <v>0.8097094453046725</v>
       </c>
       <c r="AJ21">
-        <v>0.2116525423728814</v>
+        <v>0.9061986907478091</v>
       </c>
       <c r="AK21">
-        <v>0.2545222929936306</v>
+        <v>0.8026971894832274</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -2947,7 +3010,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kiwoom Securities Co., Ltd. (KOSE:A039490)</t>
+          <t>KTB Investment &amp; Securities Co., Ltd. (KOSE:A030210)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2955,6 +3018,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D22">
+        <v>0.142</v>
+      </c>
+      <c r="E22">
+        <v>0.161</v>
+      </c>
       <c r="G22">
         <v>0</v>
       </c>
@@ -2968,85 +3037,85 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>215.5</v>
+        <v>53.3</v>
       </c>
       <c r="L22">
-        <v>0.1138344514288733</v>
+        <v>0.1411920529801324</v>
       </c>
       <c r="M22">
-        <v>60.325</v>
+        <v>9.4168</v>
       </c>
       <c r="N22">
-        <v>0.03969533460551425</v>
+        <v>0.05421301093839954</v>
       </c>
       <c r="O22">
-        <v>0.2799303944315545</v>
+        <v>0.1766754221388368</v>
       </c>
       <c r="P22">
-        <v>27.625</v>
+        <v>7.636800000000001</v>
       </c>
       <c r="Q22">
-        <v>0.01817792985457656</v>
+        <v>0.04396545768566495</v>
       </c>
       <c r="R22">
-        <v>0.1281902552204176</v>
+        <v>0.1432795497185741</v>
       </c>
       <c r="S22">
-        <v>32.7</v>
+        <v>1.779999999999999</v>
       </c>
       <c r="T22">
-        <v>0.5420638209697473</v>
+        <v>0.1890238722283578</v>
       </c>
       <c r="U22">
-        <v>335.3</v>
+        <v>346.6</v>
       </c>
       <c r="V22">
-        <v>0.2206356517733763</v>
+        <v>1.995394358088659</v>
       </c>
       <c r="W22">
-        <v>0.1160786426070563</v>
+        <v>0.129683698296837</v>
       </c>
       <c r="X22">
-        <v>0.1188859353860204</v>
+        <v>0.1968536775518114</v>
       </c>
       <c r="Y22">
-        <v>-0.002807292778964118</v>
+        <v>-0.06716997925497445</v>
       </c>
       <c r="Z22">
-        <v>0.3450909621203835</v>
+        <v>0.3767841101906378</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.04672510135834436</v>
+        <v>0.03819949796376629</v>
       </c>
       <c r="AC22">
-        <v>-0.04672510135834436</v>
+        <v>-0.03819949796376629</v>
       </c>
       <c r="AD22">
-        <v>6104.7</v>
+        <v>1771</v>
       </c>
       <c r="AE22">
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>6104.7</v>
+        <v>1771</v>
       </c>
       <c r="AG22">
-        <v>5769.4</v>
+        <v>1424.4</v>
       </c>
       <c r="AH22">
-        <v>0.8006793977230995</v>
+        <v>0.9106803105877513</v>
       </c>
       <c r="AI22">
-        <v>0.7685344881850114</v>
+        <v>0.7902369372183303</v>
       </c>
       <c r="AJ22">
-        <v>0.7915106117353309</v>
+        <v>0.8913084287591515</v>
       </c>
       <c r="AK22">
-        <v>0.7583333333333333</v>
+        <v>0.7518606492478227</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -3063,7 +3132,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sangsangin Investment &amp; Securities Co.,Ltd. (KOSE:A001290)</t>
+          <t>Yuanta Securities Korea Co., Ltd. (KOSE:A003470)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3071,6 +3140,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D23">
+        <v>0.179</v>
+      </c>
+      <c r="E23">
+        <v>0.175</v>
+      </c>
       <c r="G23">
         <v>0</v>
       </c>
@@ -3084,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>-11.1</v>
+        <v>70</v>
       </c>
       <c r="L23">
-        <v>-0.7070063694267515</v>
+        <v>0.03270569546325281</v>
       </c>
       <c r="M23">
         <v>-0</v>
@@ -3096,7 +3171,7 @@
         <v>-0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P23">
         <v>-0</v>
@@ -3105,66 +3180,188 @@
         <v>-0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>5.03</v>
+        <v>742.9</v>
       </c>
       <c r="V23">
-        <v>0.04648798521256932</v>
+        <v>1.287744843127058</v>
       </c>
       <c r="W23">
-        <v>-0.1245791245791246</v>
+        <v>0.06759366550791812</v>
       </c>
       <c r="X23">
-        <v>0.0836126727241315</v>
+        <v>0.1974226650805747</v>
       </c>
       <c r="Y23">
-        <v>-0.2081917973032561</v>
+        <v>-0.1298289995726566</v>
       </c>
       <c r="Z23">
-        <v>0.05172981878088962</v>
+        <v>0.4208053163461917</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.04825798222952679</v>
+        <v>0.03820169997322503</v>
       </c>
       <c r="AC23">
-        <v>-0.04825798222952679</v>
+        <v>-0.03820169997322503</v>
       </c>
       <c r="AD23">
-        <v>229.8</v>
+        <v>5902.1</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>229.8</v>
+        <v>5902.1</v>
       </c>
       <c r="AG23">
-        <v>224.77</v>
+        <v>5159.200000000001</v>
       </c>
       <c r="AH23">
-        <v>0.6798816568047338</v>
+        <v>0.9109584812471061</v>
       </c>
       <c r="AI23">
-        <v>0.6426174496644296</v>
+        <v>0.8372841923082379</v>
       </c>
       <c r="AJ23">
-        <v>0.6750457999219148</v>
+        <v>0.8994264395669532</v>
       </c>
       <c r="AK23">
-        <v>0.6375187905947756</v>
+        <v>0.818115505375662</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Eugene Investment &amp; Securities Co.,Ltd. (KOSE:A001200)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Brokerage &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>0.147</v>
+      </c>
+      <c r="E24">
+        <v>0.0496</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>54.3</v>
+      </c>
+      <c r="L24">
+        <v>0.04837847469707768</v>
+      </c>
+      <c r="M24">
+        <v>10.248</v>
+      </c>
+      <c r="N24">
+        <v>0.03008807985907222</v>
+      </c>
+      <c r="O24">
+        <v>0.1887292817679558</v>
+      </c>
+      <c r="P24">
+        <v>5.627999999999999</v>
+      </c>
+      <c r="Q24">
+        <v>0.0165237815619495</v>
+      </c>
+      <c r="R24">
+        <v>0.103646408839779</v>
+      </c>
+      <c r="S24">
+        <v>4.62</v>
+      </c>
+      <c r="T24">
+        <v>0.4508196721311476</v>
+      </c>
+      <c r="U24">
+        <v>387.9</v>
+      </c>
+      <c r="V24">
+        <v>1.138872577803875</v>
+      </c>
+      <c r="W24">
+        <v>0.08272394881170018</v>
+      </c>
+      <c r="X24">
+        <v>0.2068900492611883</v>
+      </c>
+      <c r="Y24">
+        <v>-0.1241661004494881</v>
+      </c>
+      <c r="Z24">
+        <v>0.3368547418967587</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0.0382364256454257</v>
+      </c>
+      <c r="AC24">
+        <v>-0.0382364256454257</v>
+      </c>
+      <c r="AD24">
+        <v>3682.8</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>3682.8</v>
+      </c>
+      <c r="AG24">
+        <v>3294.9</v>
+      </c>
+      <c r="AH24">
+        <v>0.9153452304021474</v>
+      </c>
+      <c r="AI24">
+        <v>0.8355378088345397</v>
+      </c>
+      <c r="AJ24">
+        <v>0.9063127492779536</v>
+      </c>
+      <c r="AK24">
+        <v>0.8196676451564754</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
         <v>0</v>
       </c>
     </row>
